--- a/patents_2021.xlsx
+++ b/patents_2021.xlsx
@@ -799,7 +799,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>[2021-46]</t>
+          <t>20211117</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stephan</t>
+          <t>Stephan</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frans Gilles</t>
+          <t>Frans Gilles</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taeke</t>
+          <t>Taeke</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>[2021-46]</t>
+          <t>20211117</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dennis</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Edwin</t>
+          <t>Edwin</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeroen</t>
+          <t>Jeroen</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martino</t>
+          <t>Martino</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dennis</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Edwin</t>
+          <t>Edwin</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeroen</t>
+          <t>Jeroen</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martino</t>
+          <t>Martino</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martijn</t>
+          <t>Martijn</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Siebe</t>
+          <t>Siebe</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paulus Stephanus Andreas</t>
+          <t>Paulus Stephanus Andreas</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>[2021-30]</t>
+          <t>20210728</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Swathi Sree Durga</t>
+          <t>Swathi Sree Durga</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Shishir</t>
+          <t>Shishir</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Amitabh</t>
+          <t>Amitabh</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Saurabh</t>
+          <t>Saurabh</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Willem</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Louis Johannes Petrus</t>
+          <t>Louis Johannes Petrus</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johannes Philippus</t>
+          <t>Johannes Philippus</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jorg</t>
+          <t>Jorg</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Friso</t>
+          <t>Friso</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raymond</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arjan Gerardus Matheus</t>
+          <t>Arjan Gerardus Matheus</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dhr. Reinout Klaar Norfolc Jaap</t>
+          <t>Dhr. Reinout Klaar Norfolc Jaap</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bastiaan Theodorus</t>
+          <t>Bastiaan Theodorus</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tomotsugu</t>
+          <t>Tomotsugu</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kiyoyuki</t>
+          <t>Kiyoyuki</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Masato</t>
+          <t>Masato</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eiichi</t>
+          <t>Eiichi</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atsushi</t>
+          <t>Atsushi</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yosuke</t>
+          <t>Yosuke</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yusuke</t>
+          <t>Yusuke</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnaud</t>
+          <t>Arnaud</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maurits Mario Nicolaas</t>
+          <t>Maurits Mario Nicolaas</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thomas</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ivan Jesus</t>
+          <t>Ivan Jesus</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Georg</t>
+          <t>Georg</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan Peter</t>
+          <t>Jan Peter</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ferry</t>
+          <t>Ferry</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pieter Sietze</t>
+          <t>Pieter Sietze</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Francesco</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Feike Guus</t>
+          <t>Feike Guus</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lex</t>
+          <t>Lex</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Edmond</t>
+          <t>Edmond</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sierd</t>
+          <t>Sierd</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hanamanthsa Shankarsa</t>
+          <t>Hanamanthsa Shankarsa</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paul Michael</t>
+          <t>Paul Michael</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Allison M.</t>
+          <t>Allison M.</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> William F.</t>
+          <t>William F.</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Karen L.</t>
+          <t>Karen L.</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kristin Nicole</t>
+          <t>Kristin Nicole</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kenneth Chung Yin</t>
+          <t>Kenneth Chung Yin</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Suming</t>
+          <t>Suming</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xuechu</t>
+          <t>Xuechu</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fuchun</t>
+          <t>Fuchun</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jian</t>
+          <t>Jian</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raghavendran</t>
+          <t>Raghavendran</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arash</t>
+          <t>Arash</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erik</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pramod</t>
+          <t>Pramod</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anand</t>
+          <t>Anand</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>[2021-36]</t>
+          <t>20210908</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Edo</t>
+          <t>Edo</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sven</t>
+          <t>Sven</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rody</t>
+          <t>Rody</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frank</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>[2021-38]</t>
+          <t>20210922</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martijn Joseph Jacobus Marie</t>
+          <t>Martijn Joseph Jacobus Marie</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Louis Walterus</t>
+          <t>Louis Walterus</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>[2021-39]</t>
+          <t>20210929</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>[2021-39]</t>
+          <t>20210929</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sascha</t>
+          <t>Sascha</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guido</t>
+          <t>Guido</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Michael</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nicolaas T.A.</t>
+          <t>Nicolaas T.A.</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Haakon Friso</t>
+          <t>Haakon Friso</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan-Peter</t>
+          <t>Jan-Peter</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wolfgang</t>
+          <t>Wolfgang</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dorian</t>
+          <t>Dorian</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>[2021-41]</t>
+          <t>20211013</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ruidong</t>
+          <t>Ruidong</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jason</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hannes Henrik Peter</t>
+          <t>Hannes Henrik Peter</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chad</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>[2021-41]</t>
+          <t>20211013</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joan Wichard</t>
+          <t>Joan Wichard</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>[2021-42]</t>
+          <t>20211020</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jean-Baptiste</t>
+          <t>Jean-Baptiste</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Orland</t>
+          <t>Orland</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roel</t>
+          <t>Roel</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stéphane</t>
+          <t>Stéphane</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>[2021-43]</t>
+          <t>20211027</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peter</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Prakhar</t>
+          <t>Prakhar</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shivesh Kumar</t>
+          <t>Shivesh Kumar</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eric</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHAWLA</t>
+          <t>CHAWLA</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JUKOLA</t>
+          <t>JUKOLA</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BROUNS</t>
+          <t>BROUNS</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ARANI</t>
+          <t>ARANI</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZONOOZ</t>
+          <t>ZONOOZ</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ferdinand Jacob</t>
+          <t>Ferdinand Jacob</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jozef Thomas Martinus</t>
+          <t>Jozef Thomas Martinus</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> James Raymond</t>
+          <t>James Raymond</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erik</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>[2021-45]</t>
+          <t>20211110</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Miroslav</t>
+          <t>Miroslav</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joachim</t>
+          <t>Joachim</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vincent</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grégoire</t>
+          <t>Grégoire</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Salif</t>
+          <t>Salif</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robin</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fabien</t>
+          <t>Fabien</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>[2021-45]</t>
+          <t>20211110</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vincent</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>[2021-45]</t>
+          <t>20211110</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Francesco</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Franz</t>
+          <t>Franz</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>[2021-45]</t>
+          <t>20211110</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Michal</t>
+          <t>Michal</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>[2021-46]</t>
+          <t>20211117</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnau Castillo</t>
+          <t>Arnau Castillo</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hans</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>[2021-46]</t>
+          <t>20211117</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lauri Aarne Johannes</t>
+          <t>Lauri Aarne Johannes</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jari</t>
+          <t>Jari</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erminio</t>
+          <t>Erminio</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>[2021-46]</t>
+          <t>20211117</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sierd</t>
+          <t>Sierd</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Richard</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erica</t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sebastian</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robert</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="AL55" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rombout</t>
+          <t>Rombout</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xu</t>
+          <t>Xu</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Siamak</t>
+          <t>Siamak</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joris Louis L</t>
+          <t>Joris Louis L</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Temujin</t>
+          <t>Temujin</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aloysius Christianus</t>
+          <t>Aloysius Christianus</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martijn</t>
+          <t>Martijn</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minwen</t>
+          <t>Minwen</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alex</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Giuseppina</t>
+          <t>Giuseppina</t>
         </is>
       </c>
       <c r="AI61" t="inlineStr">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -8862,7 +8862,7 @@
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnau Castillo</t>
+          <t>Arnau Castillo</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marco Jan Gerrit</t>
+          <t>Marco Jan Gerrit</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> René</t>
+          <t>René</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aram</t>
+          <t>Aram</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Axel Niels</t>
+          <t>Axel Niels</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thomas Daniël</t>
+          <t>Thomas Daniël</t>
         </is>
       </c>
       <c r="AL64" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sebastian</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -9253,7 +9253,7 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gert-Jan</t>
+          <t>Gert-Jan</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>[2021-51]</t>
+          <t>20211222</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Franciscus Quirinus Fredrik</t>
+          <t>Franciscus Quirinus Fredrik</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>[2021-51]</t>
+          <t>20211222</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arjan</t>
+          <t>Arjan</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erik</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martijn</t>
+          <t>Martijn</t>
         </is>
       </c>
       <c r="AI68" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="AE69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Edwin</t>
+          <t>Edwin</t>
         </is>
       </c>
       <c r="AF69" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marc Andre</t>
+          <t>Marc Andre</t>
         </is>
       </c>
       <c r="AI69" t="inlineStr">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lucas Pieter Lodewijk</t>
+          <t>Lucas Pieter Lodewijk</t>
         </is>
       </c>
       <c r="AF70" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Georg</t>
+          <t>Georg</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martin</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="AL70" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Michiel Petrus Maria</t>
+          <t>Michiel Petrus Maria</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Merel</t>
+          <t>Merel</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kornel</t>
+          <t>Kornel</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paul Roeland</t>
+          <t>Paul Roeland</t>
         </is>
       </c>
       <c r="AF73" t="inlineStr">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valerio</t>
+          <t>Valerio</t>
         </is>
       </c>
       <c r="AI73" t="inlineStr">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Roberto</t>
+          <t>Roberto</t>
         </is>
       </c>
       <c r="AL73" t="inlineStr">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="AN73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Federico</t>
+          <t>Federico</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeroen</t>
+          <t>Jeroen</t>
         </is>
       </c>
       <c r="AR73" t="inlineStr">
@@ -10314,7 +10314,7 @@
       </c>
       <c r="AT73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jonathan</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="AU73" t="inlineStr">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gerard Louis Jean Paul Amaury</t>
+          <t>Gerard Louis Jean Paul Amaury</t>
         </is>
       </c>
       <c r="AF74" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="AE75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF75" t="inlineStr">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="AH75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI75" t="inlineStr">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>[2021-28]</t>
+          <t>20210714</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Carlos</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Henri Jaakko Julius</t>
+          <t>Henri Jaakko Julius</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pavel</t>
+          <t>Pavel</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lauri</t>
+          <t>Lauri</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Henri</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="AH78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pavel</t>
+          <t>Pavel</t>
         </is>
       </c>
       <c r="AI78" t="inlineStr">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lauri</t>
+          <t>Lauri</t>
         </is>
       </c>
       <c r="AL78" t="inlineStr">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vikas</t>
+          <t>Vikas</t>
         </is>
       </c>
       <c r="AF79" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="AH79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kevin</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="AI79" t="inlineStr">
@@ -11098,7 +11098,7 @@
       </c>
       <c r="AK79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Richard Emil</t>
+          <t>Richard Emil</t>
         </is>
       </c>
       <c r="AL79" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eric Matthew</t>
+          <t>Eric Matthew</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>[2021-30]</t>
+          <t>20210728</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> James</t>
+          <t>James</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="AH80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bruce</t>
+          <t>Bruce</t>
         </is>
       </c>
       <c r="AI80" t="inlineStr">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>[2021-30]</t>
+          <t>20210728</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lex Josephus Maria</t>
+          <t>Lex Josephus Maria</t>
         </is>
       </c>
       <c r="AF81" t="inlineStr">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Stacey Matthew</t>
+          <t>Stacey Matthew</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Andrew Philip</t>
+          <t>Andrew Philip</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="AE83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cornelis Theodoor</t>
+          <t>Cornelis Theodoor</t>
         </is>
       </c>
       <c r="AF83" t="inlineStr">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="AE84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eiichi</t>
+          <t>Eiichi</t>
         </is>
       </c>
       <c r="AF84" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="AH84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kiyoyuki</t>
+          <t>Kiyoyuki</t>
         </is>
       </c>
       <c r="AI84" t="inlineStr">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="AK84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Masato</t>
+          <t>Masato</t>
         </is>
       </c>
       <c r="AL84" t="inlineStr">
@@ -11769,7 +11769,7 @@
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tomotsugu</t>
+          <t>Tomotsugu</t>
         </is>
       </c>
       <c r="AR84" t="inlineStr">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AU84" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="AW84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atsushi</t>
+          <t>Atsushi</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="AZ84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yosuke</t>
+          <t>Yosuke</t>
         </is>
       </c>
       <c r="BA84" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="BC84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yusuke</t>
+          <t>Yusuke</t>
         </is>
       </c>
       <c r="BD84" t="inlineStr">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="BF84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnaud</t>
+          <t>Arnaud</t>
         </is>
       </c>
       <c r="BG84" t="inlineStr">
@@ -11922,7 +11922,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -11953,7 +11953,7 @@
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Edwin Leonardus Josephus</t>
+          <t>Edwin Leonardus Josephus</t>
         </is>
       </c>
       <c r="AF85" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="AH85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eric André</t>
+          <t>Eric André</t>
         </is>
       </c>
       <c r="AI85" t="inlineStr">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Masato</t>
+          <t>Masato</t>
         </is>
       </c>
       <c r="AF86" t="inlineStr">
@@ -12108,7 +12108,7 @@
       </c>
       <c r="AH86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kiyoyuki</t>
+          <t>Kiyoyuki</t>
         </is>
       </c>
       <c r="AI86" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AL86" t="inlineStr">
@@ -12140,7 +12140,7 @@
       </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tomotsugu</t>
+          <t>Tomotsugu</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AR86" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="AT86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eiichi</t>
+          <t>Eiichi</t>
         </is>
       </c>
       <c r="AU86" t="inlineStr">
@@ -12188,7 +12188,7 @@
       </c>
       <c r="AW86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atsushi</t>
+          <t>Atsushi</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
@@ -12204,7 +12204,7 @@
       </c>
       <c r="AZ86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yosuke</t>
+          <t>Yosuke</t>
         </is>
       </c>
       <c r="BA86" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="BC86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yusuke</t>
+          <t>Yusuke</t>
         </is>
       </c>
       <c r="BD86" t="inlineStr">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="BF86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnaud</t>
+          <t>Arnaud</t>
         </is>
       </c>
       <c r="BG86" t="inlineStr">
@@ -12293,7 +12293,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="AE87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnau</t>
+          <t>Arnau</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
@@ -12339,7 +12339,7 @@
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hans</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -12450,7 +12450,7 @@
       </c>
       <c r="AE88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan Peter</t>
+          <t>Jan Peter</t>
         </is>
       </c>
       <c r="AF88" t="inlineStr">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="AH88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ferry</t>
+          <t>Ferry</t>
         </is>
       </c>
       <c r="AI88" t="inlineStr">
@@ -12480,7 +12480,7 @@
       </c>
       <c r="AK88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pieter Sietze</t>
+          <t>Pieter Sietze</t>
         </is>
       </c>
       <c r="AL88" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="AE89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ralf</t>
+          <t>Ralf</t>
         </is>
       </c>
       <c r="AF89" t="inlineStr">
@@ -12599,7 +12599,7 @@
       </c>
       <c r="AH89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paul</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="AI89" t="inlineStr">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="AK89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gijs</t>
+          <t>Gijs</t>
         </is>
       </c>
       <c r="AL89" t="inlineStr">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="AE90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ralf</t>
+          <t>Ralf</t>
         </is>
       </c>
       <c r="AF90" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="AH90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gijs</t>
+          <t>Gijs</t>
         </is>
       </c>
       <c r="AI90" t="inlineStr">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="AK90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paul</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="AL90" t="inlineStr">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="AE91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pieter  Marinus  Anthonie</t>
+          <t>Pieter  Marinus  Anthonie</t>
         </is>
       </c>
       <c r="AF91" t="inlineStr">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="AH91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan  Jacob</t>
+          <t>Jan  Jacob</t>
         </is>
       </c>
       <c r="AI91" t="inlineStr">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan-Peter</t>
+          <t>Jan-Peter</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -13106,7 +13106,7 @@
       </c>
       <c r="AE93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Edmond</t>
+          <t>Edmond</t>
         </is>
       </c>
       <c r="AF93" t="inlineStr">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="AH93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sierd</t>
+          <t>Sierd</t>
         </is>
       </c>
       <c r="AI93" t="inlineStr">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="AE94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hanamanthsa Shankarsa</t>
+          <t>Hanamanthsa Shankarsa</t>
         </is>
       </c>
       <c r="AF94" t="inlineStr">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="AH94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paul Michael</t>
+          <t>Paul Michael</t>
         </is>
       </c>
       <c r="AI94" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="AK94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Allison M.</t>
+          <t>Allison M.</t>
         </is>
       </c>
       <c r="AL94" t="inlineStr">
@@ -13285,7 +13285,7 @@
       </c>
       <c r="AN94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> William F.</t>
+          <t>William F.</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Karen L.</t>
+          <t>Karen L.</t>
         </is>
       </c>
       <c r="AR94" t="inlineStr">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="AT94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kristin Nicole</t>
+          <t>Kristin Nicole</t>
         </is>
       </c>
       <c r="AU94" t="inlineStr">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="AE95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hanamanthsa Shankarsa</t>
+          <t>Hanamanthsa Shankarsa</t>
         </is>
       </c>
       <c r="AF95" t="inlineStr">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="AH95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paul Michael</t>
+          <t>Paul Michael</t>
         </is>
       </c>
       <c r="AI95" t="inlineStr">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="AK95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Allison M.</t>
+          <t>Allison M.</t>
         </is>
       </c>
       <c r="AL95" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="AN95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> William F.</t>
+          <t>William F.</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -13484,7 +13484,7 @@
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Karen L.</t>
+          <t>Karen L.</t>
         </is>
       </c>
       <c r="AR95" t="inlineStr">
@@ -13500,7 +13500,7 @@
       </c>
       <c r="AT95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kristin Nicole</t>
+          <t>Kristin Nicole</t>
         </is>
       </c>
       <c r="AU95" t="inlineStr">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="AE96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marcel</t>
+          <t>Marcel</t>
         </is>
       </c>
       <c r="AF96" t="inlineStr">
@@ -13620,7 +13620,7 @@
       </c>
       <c r="AH96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jack</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="AI96" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="AE97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bastiaan</t>
+          <t>Bastiaan</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeroen</t>
+          <t>Jeroen</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Niels</t>
+          <t>Niels</t>
         </is>
       </c>
       <c r="AL97" t="inlineStr">
@@ -13850,7 +13850,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="AE98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Masato</t>
+          <t>Masato</t>
         </is>
       </c>
       <c r="AF98" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="AH98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kiyoyuki</t>
+          <t>Kiyoyuki</t>
         </is>
       </c>
       <c r="AI98" t="inlineStr">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="AK98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AL98" t="inlineStr">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="AN98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tomotsugu</t>
+          <t>Tomotsugu</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="AQ98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AR98" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="AT98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atsushi</t>
+          <t>Atsushi</t>
         </is>
       </c>
       <c r="AU98" t="inlineStr">
@@ -13981,7 +13981,7 @@
       </c>
       <c r="AW98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yosuke</t>
+          <t>Yosuke</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="AZ98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yusuke</t>
+          <t>Yusuke</t>
         </is>
       </c>
       <c r="BA98" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="BC98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eiichi</t>
+          <t>Eiichi</t>
         </is>
       </c>
       <c r="BD98" t="inlineStr">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="BF98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnaud</t>
+          <t>Arnaud</t>
         </is>
       </c>
       <c r="BG98" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="AE99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bart</t>
+          <t>Bart</t>
         </is>
       </c>
       <c r="AF99" t="inlineStr">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="AE100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kathryn</t>
+          <t>Kathryn</t>
         </is>
       </c>
       <c r="AF100" t="inlineStr">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="AH100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vijay</t>
+          <t>Vijay</t>
         </is>
       </c>
       <c r="AI100" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="AK100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bert</t>
+          <t>Bert</t>
         </is>
       </c>
       <c r="AL100" t="inlineStr">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -14376,7 +14376,7 @@
       </c>
       <c r="AE101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mika</t>
+          <t>Mika</t>
         </is>
       </c>
       <c r="AF101" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="AH101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marko</t>
+          <t>Marko</t>
         </is>
       </c>
       <c r="AI101" t="inlineStr">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="AE102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raghavendran</t>
+          <t>Raghavendran</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arash</t>
+          <t>Arash</t>
         </is>
       </c>
       <c r="AI102" t="inlineStr">
@@ -14601,7 +14601,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>[2021-35]</t>
+          <t>20210901</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="AE103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erik</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="AF103" t="inlineStr">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>[2021-36]</t>
+          <t>20210908</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="AE104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Swathi</t>
+          <t>Swathi</t>
         </is>
       </c>
       <c r="AF104" t="inlineStr">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="AH104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shishir</t>
+          <t>Shishir</t>
         </is>
       </c>
       <c r="AI104" t="inlineStr">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="AK104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Amitabh</t>
+          <t>Amitabh</t>
         </is>
       </c>
       <c r="AL104" t="inlineStr">
@@ -14799,7 +14799,7 @@
       </c>
       <c r="AN104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Saurabh</t>
+          <t>Saurabh</t>
         </is>
       </c>
       <c r="AO104" t="inlineStr">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>[2021-36]</t>
+          <t>20210908</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -14905,7 +14905,7 @@
       </c>
       <c r="AE105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gerrit Willem</t>
+          <t>Gerrit Willem</t>
         </is>
       </c>
       <c r="AF105" t="inlineStr">
@@ -14989,7 +14989,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="AE106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frederik A.S.</t>
+          <t>Frederik A.S.</t>
         </is>
       </c>
       <c r="AF106" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="AE107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frederik A.S.</t>
+          <t>Frederik A.S.</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
@@ -15221,7 +15221,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="AE108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hans</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="AF108" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -15362,7 +15362,7 @@
       </c>
       <c r="AE109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frederik A.S.</t>
+          <t>Frederik A.S.</t>
         </is>
       </c>
       <c r="AF109" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="AE110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Michiel</t>
+          <t>Michiel</t>
         </is>
       </c>
       <c r="AF110" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="AE111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ronald</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="AF111" t="inlineStr">
@@ -15679,7 +15679,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>[2021-37]</t>
+          <t>20210915</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -15714,7 +15714,7 @@
       </c>
       <c r="AE112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan-Peter</t>
+          <t>Jan-Peter</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
@@ -15807,7 +15807,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>[2021-38]</t>
+          <t>20210922</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="AE113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rickard</t>
+          <t>Rickard</t>
         </is>
       </c>
       <c r="AF113" t="inlineStr">
@@ -15853,7 +15853,7 @@
       </c>
       <c r="AH113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Carl-Johan</t>
+          <t>Carl-Johan</t>
         </is>
       </c>
       <c r="AI113" t="inlineStr">
@@ -15933,7 +15933,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>[2021-39]</t>
+          <t>20210929</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -15960,7 +15960,7 @@
       </c>
       <c r="AE114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ole Henry</t>
+          <t>Ole Henry</t>
         </is>
       </c>
       <c r="AF114" t="inlineStr">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>[2021-39]</t>
+          <t>20210929</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="AE115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pramod</t>
+          <t>Pramod</t>
         </is>
       </c>
       <c r="AF115" t="inlineStr">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="AH115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anand</t>
+          <t>Anand</t>
         </is>
       </c>
       <c r="AI115" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>[2021-39]</t>
+          <t>20210929</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="AE116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rob</t>
+          <t>Rob</t>
         </is>
       </c>
       <c r="AF116" t="inlineStr">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="AH116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arjan Wilhelmus Maria</t>
+          <t>Arjan Wilhelmus Maria</t>
         </is>
       </c>
       <c r="AI116" t="inlineStr">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="AK116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mario Janice</t>
+          <t>Mario Janice</t>
         </is>
       </c>
       <c r="AL116" t="inlineStr">
@@ -16258,7 +16258,7 @@
       </c>
       <c r="AN116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Willem Antoon Bernard</t>
+          <t>Willem Antoon Bernard</t>
         </is>
       </c>
       <c r="AO116" t="inlineStr">
@@ -16273,7 +16273,7 @@
       </c>
       <c r="AQ116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hendrik Johan Arnout</t>
+          <t>Hendrik Johan Arnout</t>
         </is>
       </c>
       <c r="AR116" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="AT116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reinardus Hermanus Bernardus</t>
+          <t>Reinardus Hermanus Bernardus</t>
         </is>
       </c>
       <c r="AU116" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="AW116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alex Reinier</t>
+          <t>Alex Reinier</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="AZ116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gradus Johannes</t>
+          <t>Gradus Johannes</t>
         </is>
       </c>
       <c r="BA116" t="inlineStr">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -16411,7 +16411,7 @@
       </c>
       <c r="AE117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
@@ -16429,7 +16429,7 @@
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
@@ -16512,7 +16512,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="AE118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marcel</t>
+          <t>Marcel</t>
         </is>
       </c>
       <c r="AF118" t="inlineStr">
@@ -16559,7 +16559,7 @@
       </c>
       <c r="AH118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stefan</t>
+          <t>Stefan</t>
         </is>
       </c>
       <c r="AI118" t="inlineStr">
@@ -16639,7 +16639,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>[2021-41]</t>
+          <t>20211013</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="AE119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ruidong</t>
+          <t>Ruidong</t>
         </is>
       </c>
       <c r="AF119" t="inlineStr">
@@ -16689,7 +16689,7 @@
       </c>
       <c r="AH119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jason</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="AI119" t="inlineStr">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="AK119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hannes Hendrik Peter</t>
+          <t>Hannes Hendrik Peter</t>
         </is>
       </c>
       <c r="AL119" t="inlineStr">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="AN119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chad</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="AO119" t="inlineStr">
@@ -16793,7 +16793,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>[2021-41]</t>
+          <t>20211013</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="AE120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hylke Jurjen Lijsbert</t>
+          <t>Hylke Jurjen Lijsbert</t>
         </is>
       </c>
       <c r="AF120" t="inlineStr">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="AH120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Siete</t>
+          <t>Siete</t>
         </is>
       </c>
       <c r="AI120" t="inlineStr">
@@ -16922,7 +16922,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>[2021-42]</t>
+          <t>20211020</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="AE121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arno Henricus Wilhelmus</t>
+          <t>Arno Henricus Wilhelmus</t>
         </is>
       </c>
       <c r="AF121" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>[2021-42]</t>
+          <t>20211020</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -17082,7 +17082,7 @@
       </c>
       <c r="AE122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Willem Johannes</t>
+          <t>Willem Johannes</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>[2021-42]</t>
+          <t>20211020</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="AE123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johannes Martinus</t>
+          <t>Johannes Martinus</t>
         </is>
       </c>
       <c r="AF123" t="inlineStr">
@@ -17295,7 +17295,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>[2021-42]</t>
+          <t>20211020</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="AE124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christianus G.M.</t>
+          <t>Christianus G.M.</t>
         </is>
       </c>
       <c r="AF124" t="inlineStr">
@@ -17410,7 +17410,7 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>[2021-42]</t>
+          <t>20211020</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="AE125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Siamak</t>
+          <t>Siamak</t>
         </is>
       </c>
       <c r="AF125" t="inlineStr">
@@ -17458,7 +17458,7 @@
       </c>
       <c r="AH125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brad</t>
+          <t>Brad</t>
         </is>
       </c>
       <c r="AI125" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Steven</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="AL125" t="inlineStr">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>[2021-42]</t>
+          <t>20211020</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
@@ -17585,7 +17585,7 @@
       </c>
       <c r="AE126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF126" t="inlineStr">
@@ -17602,7 +17602,7 @@
       </c>
       <c r="AH126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI126" t="inlineStr">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>[2021-43]</t>
+          <t>20211027</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
@@ -17713,7 +17713,7 @@
       </c>
       <c r="AE127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Richard Patrick</t>
+          <t>Richard Patrick</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>[2021-43]</t>
+          <t>20211027</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="AE128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peter Theodorus Lambertus</t>
+          <t>Peter Theodorus Lambertus</t>
         </is>
       </c>
       <c r="AF128" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>[2021-43]</t>
+          <t>20211027</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
@@ -17941,7 +17941,7 @@
       </c>
       <c r="AE129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Prakhar</t>
+          <t>Prakhar</t>
         </is>
       </c>
       <c r="AF129" t="inlineStr">
@@ -17957,7 +17957,7 @@
       </c>
       <c r="AH129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shivesh Kumar</t>
+          <t>Shivesh Kumar</t>
         </is>
       </c>
       <c r="AI129" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
@@ -18070,7 +18070,7 @@
       </c>
       <c r="AE130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Albert Thaeke</t>
+          <t>Albert Thaeke</t>
         </is>
       </c>
       <c r="AF130" t="inlineStr">
@@ -18085,7 +18085,7 @@
       </c>
       <c r="AH130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan Bernhard</t>
+          <t>Jan Bernhard</t>
         </is>
       </c>
       <c r="AI130" t="inlineStr">
@@ -18165,7 +18165,7 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="AE131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pavel</t>
+          <t>Pavel</t>
         </is>
       </c>
       <c r="AF131" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
@@ -18318,7 +18318,7 @@
       </c>
       <c r="AE132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinquin</t>
+          <t>Xinquin</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
@@ -18333,7 +18333,7 @@
       </c>
       <c r="AH132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madan Mohan Reddy</t>
+          <t>Madan Mohan Reddy</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
@@ -18348,7 +18348,7 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mohammad Nizam</t>
+          <t>Mohammad Nizam</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
@@ -18425,7 +18425,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>[2021-45]</t>
+          <t>20211110</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="AE133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ronald Johannes Cornelis</t>
+          <t>Ronald Johannes Cornelis</t>
         </is>
       </c>
       <c r="AF133" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="AH133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Koen Joseph</t>
+          <t>Koen Joseph</t>
         </is>
       </c>
       <c r="AI133" t="inlineStr">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>[2021-45]</t>
+          <t>20211110</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
@@ -18594,7 +18594,7 @@
       </c>
       <c r="AE134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alexander J.A</t>
+          <t>Alexander J.A</t>
         </is>
       </c>
       <c r="AF134" t="inlineStr">
@@ -18609,7 +18609,7 @@
       </c>
       <c r="AH134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andrea</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="AI134" t="inlineStr">
@@ -18689,7 +18689,7 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>[2021-46]</t>
+          <t>20211117</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
@@ -18724,7 +18724,7 @@
       </c>
       <c r="AE135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bram</t>
+          <t>Bram</t>
         </is>
       </c>
       <c r="AF135" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
@@ -18842,7 +18842,7 @@
       </c>
       <c r="AE136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Michel Bernardus Johanna</t>
+          <t>Michel Bernardus Johanna</t>
         </is>
       </c>
       <c r="AF136" t="inlineStr">
@@ -18925,7 +18925,7 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
@@ -18960,7 +18960,7 @@
       </c>
       <c r="AE137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sebastian  Thomas</t>
+          <t>Sebastian  Thomas</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
@@ -18975,7 +18975,7 @@
       </c>
       <c r="AH137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peter  Maximilian</t>
+          <t>Peter  Maximilian</t>
         </is>
       </c>
       <c r="AI137" t="inlineStr">
@@ -18990,7 +18990,7 @@
       </c>
       <c r="AK137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Patrick  Sebastian</t>
+          <t>Patrick  Sebastian</t>
         </is>
       </c>
       <c r="AL137" t="inlineStr">
@@ -19067,7 +19067,7 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="AE138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF138" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="AH138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI138" t="inlineStr">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="AE139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Josef</t>
+          <t>Josef</t>
         </is>
       </c>
       <c r="AF139" t="inlineStr">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="AE140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Leonardus Theodorus Maria</t>
+          <t>Leonardus Theodorus Maria</t>
         </is>
       </c>
       <c r="AF140" t="inlineStr">
@@ -19352,7 +19352,7 @@
       </c>
       <c r="AH140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Franciscus Gerardus Maria</t>
+          <t>Franciscus Gerardus Maria</t>
         </is>
       </c>
       <c r="AI140" t="inlineStr">
@@ -19367,7 +19367,7 @@
       </c>
       <c r="AK140" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jan Joseph Briones</t>
+          <t>Jan Joseph Briones</t>
         </is>
       </c>
       <c r="AL140" t="inlineStr">
@@ -19444,7 +19444,7 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
@@ -19479,7 +19479,7 @@
       </c>
       <c r="AE141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tom</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="AF141" t="inlineStr">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
@@ -19617,7 +19617,7 @@
       </c>
       <c r="AE142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ya-Ping</t>
+          <t>Ya-Ping</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
@@ -19632,7 +19632,7 @@
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Magnus</t>
+          <t>Magnus</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
@@ -19647,7 +19647,7 @@
       </c>
       <c r="AK142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aroro</t>
+          <t>Aroro</t>
         </is>
       </c>
       <c r="AL142" t="inlineStr">
@@ -19662,7 +19662,7 @@
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Livia</t>
+          <t>Livia</t>
         </is>
       </c>
       <c r="AO142" t="inlineStr">
@@ -19677,7 +19677,7 @@
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Federico</t>
+          <t>Federico</t>
         </is>
       </c>
       <c r="AR142" t="inlineStr">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Michael</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
@@ -19707,7 +19707,7 @@
       </c>
       <c r="AW142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Doris</t>
+          <t>Doris</t>
         </is>
       </c>
       <c r="AX142" t="inlineStr">
@@ -19772,7 +19772,7 @@
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
@@ -19803,7 +19803,7 @@
       </c>
       <c r="AE143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raul</t>
+          <t>Raul</t>
         </is>
       </c>
       <c r="AF143" t="inlineStr">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="AH143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daniel</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="AI143" t="inlineStr">
@@ -19833,7 +19833,7 @@
       </c>
       <c r="AK143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> David</t>
+          <t>David</t>
         </is>
       </c>
       <c r="AL143" t="inlineStr">
@@ -19910,7 +19910,7 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="AE144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jerome</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="AF144" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>[2021-51]</t>
+          <t>20211222</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="AE145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christiaan Johannes Nicolaas</t>
+          <t>Christiaan Johannes Nicolaas</t>
         </is>
       </c>
       <c r="AF145" t="inlineStr">
@@ -20074,7 +20074,7 @@
       </c>
       <c r="AH145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cornelis Willem</t>
+          <t>Cornelis Willem</t>
         </is>
       </c>
       <c r="AI145" t="inlineStr">
@@ -20154,7 +20154,7 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>[2021-51]</t>
+          <t>20211222</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -20181,7 +20181,7 @@
       </c>
       <c r="AE146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Franciscus Johannes</t>
+          <t>Franciscus Johannes</t>
         </is>
       </c>
       <c r="AF146" t="inlineStr">
@@ -20196,7 +20196,7 @@
       </c>
       <c r="AH146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rolf</t>
+          <t>Rolf</t>
         </is>
       </c>
       <c r="AI146" t="inlineStr">
@@ -20211,7 +20211,7 @@
       </c>
       <c r="AK146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thierry G. C.</t>
+          <t>Thierry G. C.</t>
         </is>
       </c>
       <c r="AL146" t="inlineStr">
@@ -20226,7 +20226,7 @@
       </c>
       <c r="AN146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bernd Uwe Gerhard</t>
+          <t>Bernd Uwe Gerhard</t>
         </is>
       </c>
       <c r="AO146" t="inlineStr">
@@ -20300,7 +20300,7 @@
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="AE147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pieter Gerardus Antonius Maria</t>
+          <t>Pieter Gerardus Antonius Maria</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
@@ -20346,7 +20346,7 @@
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brian</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -20461,7 +20461,7 @@
       </c>
       <c r="AE148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Niek</t>
+          <t>Niek</t>
         </is>
       </c>
       <c r="AF148" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="AH148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Luc</t>
+          <t>Luc</t>
         </is>
       </c>
       <c r="AI148" t="inlineStr">
@@ -20556,7 +20556,7 @@
       </c>
       <c r="X149" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="AE149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dennis</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="AF149" t="inlineStr">
@@ -20674,7 +20674,7 @@
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
@@ -20709,7 +20709,7 @@
       </c>
       <c r="AE150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artur Tadeusz</t>
+          <t>Artur Tadeusz</t>
         </is>
       </c>
       <c r="AF150" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="AH150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peter</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="AI150" t="inlineStr">
@@ -20804,7 +20804,7 @@
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -20835,7 +20835,7 @@
       </c>
       <c r="AE151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF151" t="inlineStr">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="AH151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI151" t="inlineStr">
@@ -20930,7 +20930,7 @@
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -20957,7 +20957,7 @@
       </c>
       <c r="AE152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marko</t>
+          <t>Marko</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
@@ -20972,7 +20972,7 @@
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lauri Aarne Johannes</t>
+          <t>Lauri Aarne Johannes</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr">
@@ -20987,7 +20987,7 @@
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Petri</t>
+          <t>Petri</t>
         </is>
       </c>
       <c r="AL152" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="AE153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peter</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="AF153" t="inlineStr">
@@ -21106,7 +21106,7 @@
       </c>
       <c r="AH153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Karel</t>
+          <t>Karel</t>
         </is>
       </c>
       <c r="AI153" t="inlineStr">
@@ -21121,7 +21121,7 @@
       </c>
       <c r="AK153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frank Gerard</t>
+          <t>Frank Gerard</t>
         </is>
       </c>
       <c r="AL153" t="inlineStr">
@@ -21197,7 +21197,7 @@
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="AE154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jasper</t>
+          <t>Jasper</t>
         </is>
       </c>
       <c r="AF154" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="X155" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
@@ -21342,7 +21342,7 @@
       </c>
       <c r="AE155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marco Bernardus Wiebren</t>
+          <t>Marco Bernardus Wiebren</t>
         </is>
       </c>
       <c r="AF155" t="inlineStr">
@@ -21425,7 +21425,7 @@
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
@@ -21452,7 +21452,7 @@
       </c>
       <c r="AE156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Willem</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="AF156" t="inlineStr">
@@ -21535,7 +21535,7 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="AE157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Timothy</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
@@ -21577,7 +21577,7 @@
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hans</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
@@ -21657,7 +21657,7 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>[2021-28]</t>
+          <t>20210714</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="AE158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cornelis Otto</t>
+          <t>Cornelis Otto</t>
         </is>
       </c>
       <c r="AF158" t="inlineStr">
@@ -21775,7 +21775,7 @@
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>[2021-28]</t>
+          <t>20210714</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -21810,7 +21810,7 @@
       </c>
       <c r="AE159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christianus G.M.</t>
+          <t>Christianus G.M.</t>
         </is>
       </c>
       <c r="AF159" t="inlineStr">
@@ -21825,7 +21825,7 @@
       </c>
       <c r="AH159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Klaas P.</t>
+          <t>Klaas P.</t>
         </is>
       </c>
       <c r="AI159" t="inlineStr">
@@ -21840,7 +21840,7 @@
       </c>
       <c r="AK159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theodorus G.M.</t>
+          <t>Theodorus G.M.</t>
         </is>
       </c>
       <c r="AL159" t="inlineStr">
@@ -21917,7 +21917,7 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>[2021-28]</t>
+          <t>20210714</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
@@ -21944,7 +21944,7 @@
       </c>
       <c r="AE160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Elizabeth</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="AF160" t="inlineStr">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="X161" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
@@ -22058,7 +22058,7 @@
       </c>
       <c r="AE161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Laurent</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="AF161" t="inlineStr">
@@ -22073,7 +22073,7 @@
       </c>
       <c r="AH161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christophe</t>
+          <t>Christophe</t>
         </is>
       </c>
       <c r="AI161" t="inlineStr">
@@ -22088,7 +22088,7 @@
       </c>
       <c r="AK161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Denis</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="AL161" t="inlineStr">
@@ -22165,7 +22165,7 @@
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
@@ -22192,7 +22192,7 @@
       </c>
       <c r="AE162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Antonius</t>
+          <t>Antonius</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
@@ -22207,7 +22207,7 @@
       </c>
       <c r="AH162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robertus Henricus Antonius</t>
+          <t>Robertus Henricus Antonius</t>
         </is>
       </c>
       <c r="AI162" t="inlineStr">
@@ -22222,7 +22222,7 @@
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johannes Petrus Antonius</t>
+          <t>Johannes Petrus Antonius</t>
         </is>
       </c>
       <c r="AL162" t="inlineStr">
@@ -22306,7 +22306,7 @@
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="AE163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dan</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="AF163" t="inlineStr">
@@ -22417,7 +22417,7 @@
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>[2021-29]</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="AE164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Henri</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="AF164" t="inlineStr">
@@ -22464,7 +22464,7 @@
       </c>
       <c r="AH164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pavel</t>
+          <t>Pavel</t>
         </is>
       </c>
       <c r="AI164" t="inlineStr">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="AK164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lauri</t>
+          <t>Lauri</t>
         </is>
       </c>
       <c r="AL164" t="inlineStr">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="X165" t="inlineStr">
         <is>
-          <t>[2021-30]</t>
+          <t>20210728</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
@@ -22587,7 +22587,7 @@
       </c>
       <c r="AE165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Youness</t>
+          <t>Youness</t>
         </is>
       </c>
       <c r="AF165" t="inlineStr">
@@ -22603,7 +22603,7 @@
       </c>
       <c r="AH165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> John</t>
+          <t>John</t>
         </is>
       </c>
       <c r="AI165" t="inlineStr">
@@ -22619,7 +22619,7 @@
       </c>
       <c r="AK165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shiva K. T.</t>
+          <t>Shiva K. T.</t>
         </is>
       </c>
       <c r="AL165" t="inlineStr">
@@ -22697,7 +22697,7 @@
       </c>
       <c r="X166" t="inlineStr">
         <is>
-          <t>[2021-30]</t>
+          <t>20210728</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
@@ -22724,7 +22724,7 @@
       </c>
       <c r="AE166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AF166" t="inlineStr">
@@ -22742,7 +22742,7 @@
       </c>
       <c r="AH166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AI166" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="AE167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Omer</t>
+          <t>Omer</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
@@ -22871,7 +22871,7 @@
       </c>
       <c r="AH167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Colin</t>
+          <t>Colin</t>
         </is>
       </c>
       <c r="AI167" t="inlineStr">
@@ -22951,7 +22951,7 @@
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>[2021-31]</t>
+          <t>20210804</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
@@ -22986,7 +22986,7 @@
       </c>
       <c r="AE168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AF168" t="inlineStr">
@@ -23002,7 +23002,7 @@
       </c>
       <c r="AH168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AI168" t="inlineStr">
@@ -23082,7 +23082,7 @@
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="AE169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gerrit Johannes</t>
+          <t>Gerrit Johannes</t>
         </is>
       </c>
       <c r="AF169" t="inlineStr">
@@ -23206,7 +23206,7 @@
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
@@ -23241,7 +23241,7 @@
       </c>
       <c r="AE170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Masato</t>
+          <t>Masato</t>
         </is>
       </c>
       <c r="AF170" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="AH170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kiyoyuki</t>
+          <t>Kiyoyuki</t>
         </is>
       </c>
       <c r="AI170" t="inlineStr">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="AK170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AL170" t="inlineStr">
@@ -23289,7 +23289,7 @@
       </c>
       <c r="AN170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tomotsugu</t>
+          <t>Tomotsugu</t>
         </is>
       </c>
       <c r="AO170" t="inlineStr">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="AQ170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daisuke</t>
+          <t>Daisuke</t>
         </is>
       </c>
       <c r="AR170" t="inlineStr">
@@ -23321,7 +23321,7 @@
       </c>
       <c r="AT170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atsushi</t>
+          <t>Atsushi</t>
         </is>
       </c>
       <c r="AU170" t="inlineStr">
@@ -23337,7 +23337,7 @@
       </c>
       <c r="AW170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yosuke</t>
+          <t>Yosuke</t>
         </is>
       </c>
       <c r="AX170" t="inlineStr">
@@ -23353,7 +23353,7 @@
       </c>
       <c r="AZ170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yusuke</t>
+          <t>Yusuke</t>
         </is>
       </c>
       <c r="BA170" t="inlineStr">
@@ -23369,7 +23369,7 @@
       </c>
       <c r="BC170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eiichi</t>
+          <t>Eiichi</t>
         </is>
       </c>
       <c r="BD170" t="inlineStr">
@@ -23385,7 +23385,7 @@
       </c>
       <c r="BF170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnaud</t>
+          <t>Arnaud</t>
         </is>
       </c>
       <c r="BG170" t="inlineStr">
@@ -23446,7 +23446,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
@@ -23473,7 +23473,7 @@
       </c>
       <c r="AE171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan Paul</t>
+          <t>Jan Paul</t>
         </is>
       </c>
       <c r="AF171" t="inlineStr">
@@ -23556,7 +23556,7 @@
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="AE172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bernardus Ludgerus Lubertus</t>
+          <t>Bernardus Ludgerus Lubertus</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
@@ -23710,7 +23710,7 @@
       </c>
       <c r="AE173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sushil Kumar</t>
+          <t>Sushil Kumar</t>
         </is>
       </c>
       <c r="AF173" t="inlineStr">
@@ -23726,7 +23726,7 @@
       </c>
       <c r="AH173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pankaj</t>
+          <t>Pankaj</t>
         </is>
       </c>
       <c r="AI173" t="inlineStr">
@@ -23742,7 +23742,7 @@
       </c>
       <c r="AK173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ashish Ashok</t>
+          <t>Ashish Ashok</t>
         </is>
       </c>
       <c r="AL173" t="inlineStr">
@@ -23820,7 +23820,7 @@
       </c>
       <c r="X174" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
@@ -23847,7 +23847,7 @@
       </c>
       <c r="AE174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liesbeth</t>
+          <t>Liesbeth</t>
         </is>
       </c>
       <c r="AF174" t="inlineStr">
@@ -23865,7 +23865,7 @@
       </c>
       <c r="AH174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anthony</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="AI174" t="inlineStr">
@@ -23948,7 +23948,7 @@
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>[2021-32]</t>
+          <t>20210811</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
@@ -23983,7 +23983,7 @@
       </c>
       <c r="AE175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thierry G. C.</t>
+          <t>Thierry G. C.</t>
         </is>
       </c>
       <c r="AF175" t="inlineStr">
@@ -24067,7 +24067,7 @@
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>[2021-33]</t>
+          <t>20210818</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -24098,7 +24098,7 @@
       </c>
       <c r="AE176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turo</t>
+          <t>Turo</t>
         </is>
       </c>
       <c r="AF176" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="AE177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peter Christiaan</t>
+          <t>Peter Christiaan</t>
         </is>
       </c>
       <c r="AF177" t="inlineStr">
@@ -24223,7 +24223,7 @@
       </c>
       <c r="AH177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Antonius Marinus Christoffel</t>
+          <t>Antonius Marinus Christoffel</t>
         </is>
       </c>
       <c r="AI177" t="inlineStr">
@@ -24303,7 +24303,7 @@
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>[2021-34]</t>
+          <t>20210825</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
@@ -24334,7 +24334,7 @@
       </c>
       <c r="AE178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Suming</t>
+          <t>Suming</t>
         </is>
       </c>
       <c r="AF178" t="inlineStr">
@@ -24351,7 +24351,7 @@
       </c>
       <c r="AH178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kenneth Chung Yin</t>
+          <t>Kenneth Chung Yin</t>
         </is>
       </c>
       <c r="AI178" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="AK178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fuchun</t>
+          <t>Fuchun</t>
         </is>
       </c>
       <c r="AL178" t="inlineStr">
@@ -24446,7 +24446,7 @@
       </c>
       <c r="X179" t="inlineStr">
         <is>
-          <t>[2021-36]</t>
+          <t>20210908</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
@@ -24481,7 +24481,7 @@
       </c>
       <c r="AE179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PETER</t>
+          <t>PETER</t>
         </is>
       </c>
       <c r="AF179" t="inlineStr">
@@ -24564,7 +24564,7 @@
       </c>
       <c r="X180" t="inlineStr">
         <is>
-          <t>[2021-36]</t>
+          <t>20210908</t>
         </is>
       </c>
       <c r="Y180" t="inlineStr">
@@ -24599,7 +24599,7 @@
       </c>
       <c r="AE180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pim</t>
+          <t>Pim</t>
         </is>
       </c>
       <c r="AF180" t="inlineStr">
@@ -24614,7 +24614,7 @@
       </c>
       <c r="AH180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="AI180" t="inlineStr">
@@ -24629,7 +24629,7 @@
       </c>
       <c r="AK180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martinus Petrus</t>
+          <t>Martinus Petrus</t>
         </is>
       </c>
       <c r="AL180" t="inlineStr">
@@ -24705,7 +24705,7 @@
       </c>
       <c r="X181" t="inlineStr">
         <is>
-          <t>[2021-36]</t>
+          <t>20210908</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr">
@@ -24736,7 +24736,7 @@
       </c>
       <c r="AE181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yevhen</t>
+          <t>Yevhen</t>
         </is>
       </c>
       <c r="AF181" t="inlineStr">
@@ -24820,7 +24820,7 @@
       </c>
       <c r="X182" t="inlineStr">
         <is>
-          <t>[2021-39]</t>
+          <t>20210929</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="AE182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nicholas</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="AF182" t="inlineStr">
@@ -24939,7 +24939,7 @@
       </c>
       <c r="X183" t="inlineStr">
         <is>
-          <t>[2021-39]</t>
+          <t>20210929</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -24974,7 +24974,7 @@
       </c>
       <c r="AE183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ole Henry</t>
+          <t>Ole Henry</t>
         </is>
       </c>
       <c r="AF183" t="inlineStr">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="X184" t="inlineStr">
         <is>
-          <t>[2021-39]</t>
+          <t>20210929</t>
         </is>
       </c>
       <c r="Y184" t="inlineStr">
@@ -25093,7 +25093,7 @@
       </c>
       <c r="AE184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Filippo</t>
+          <t>Filippo</t>
         </is>
       </c>
       <c r="AF184" t="inlineStr">
@@ -25110,7 +25110,7 @@
       </c>
       <c r="AH184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wolfgang</t>
+          <t>Wolfgang</t>
         </is>
       </c>
       <c r="AI184" t="inlineStr">
@@ -25127,7 +25127,7 @@
       </c>
       <c r="AK184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stefan</t>
+          <t>Stefan</t>
         </is>
       </c>
       <c r="AL184" t="inlineStr">
@@ -25206,7 +25206,7 @@
       </c>
       <c r="X185" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="AE185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Di</t>
+          <t>Di</t>
         </is>
       </c>
       <c r="AF185" t="inlineStr">
@@ -25257,7 +25257,7 @@
       </c>
       <c r="AH185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lin</t>
+          <t>Lin</t>
         </is>
       </c>
       <c r="AI185" t="inlineStr">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="AK185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fangzhou</t>
+          <t>Fangzhou</t>
         </is>
       </c>
       <c r="AL185" t="inlineStr">
@@ -25289,7 +25289,7 @@
       </c>
       <c r="AN185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sanjay</t>
+          <t>Sanjay</t>
         </is>
       </c>
       <c r="AO185" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="X186" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y186" t="inlineStr">
@@ -25391,7 +25391,7 @@
       </c>
       <c r="AE186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dirk Thomas</t>
+          <t>Dirk Thomas</t>
         </is>
       </c>
       <c r="AF186" t="inlineStr">
@@ -25406,7 +25406,7 @@
       </c>
       <c r="AH186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jordi</t>
+          <t>Jordi</t>
         </is>
       </c>
       <c r="AI186" t="inlineStr">
@@ -25421,7 +25421,7 @@
       </c>
       <c r="AK186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan Maarten</t>
+          <t>Jan Maarten</t>
         </is>
       </c>
       <c r="AL186" t="inlineStr">
@@ -25498,7 +25498,7 @@
       </c>
       <c r="X187" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y187" t="inlineStr">
@@ -25533,7 +25533,7 @@
       </c>
       <c r="AE187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wolfgang</t>
+          <t>Wolfgang</t>
         </is>
       </c>
       <c r="AF187" t="inlineStr">
@@ -25549,7 +25549,7 @@
       </c>
       <c r="AH187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dorian</t>
+          <t>Dorian</t>
         </is>
       </c>
       <c r="AI187" t="inlineStr">
@@ -25630,7 +25630,7 @@
       </c>
       <c r="X188" t="inlineStr">
         <is>
-          <t>[2021-40]</t>
+          <t>20211006</t>
         </is>
       </c>
       <c r="Y188" t="inlineStr">
@@ -25665,7 +25665,7 @@
       </c>
       <c r="AE188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christophe Marc</t>
+          <t>Christophe Marc</t>
         </is>
       </c>
       <c r="AF188" t="inlineStr">
@@ -25681,7 +25681,7 @@
       </c>
       <c r="AH188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joris Louis L</t>
+          <t>Joris Louis L</t>
         </is>
       </c>
       <c r="AI188" t="inlineStr">
@@ -25697,7 +25697,7 @@
       </c>
       <c r="AK188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Temujin</t>
+          <t>Temujin</t>
         </is>
       </c>
       <c r="AL188" t="inlineStr">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="X189" t="inlineStr">
         <is>
-          <t>[2021-41]</t>
+          <t>20211013</t>
         </is>
       </c>
       <c r="Y189" t="inlineStr">
@@ -25810,7 +25810,7 @@
       </c>
       <c r="AE189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="AF189" t="inlineStr">
@@ -25825,7 +25825,7 @@
       </c>
       <c r="AH189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="AI189" t="inlineStr">
@@ -25840,7 +25840,7 @@
       </c>
       <c r="AK189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martin</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="AL189" t="inlineStr">
@@ -25855,7 +25855,7 @@
       </c>
       <c r="AN189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christian</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="AO189" t="inlineStr">
@@ -25929,7 +25929,7 @@
       </c>
       <c r="X190" t="inlineStr">
         <is>
-          <t>[2021-42]</t>
+          <t>20211020</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -25960,7 +25960,7 @@
       </c>
       <c r="AE190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andi</t>
+          <t>Andi</t>
         </is>
       </c>
       <c r="AF190" t="inlineStr">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="AH190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xin</t>
+          <t>Xin</t>
         </is>
       </c>
       <c r="AI190" t="inlineStr">
@@ -26065,7 +26065,7 @@
       </c>
       <c r="X191" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y191" t="inlineStr">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="AE191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jean-Baptiste</t>
+          <t>Jean-Baptiste</t>
         </is>
       </c>
       <c r="AF191" t="inlineStr">
@@ -26115,7 +26115,7 @@
       </c>
       <c r="AH191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Orland</t>
+          <t>Orland</t>
         </is>
       </c>
       <c r="AI191" t="inlineStr">
@@ -26130,7 +26130,7 @@
       </c>
       <c r="AK191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roel</t>
+          <t>Roel</t>
         </is>
       </c>
       <c r="AL191" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stéphane</t>
+          <t>Stéphane</t>
         </is>
       </c>
       <c r="AO191" t="inlineStr">
@@ -26220,7 +26220,7 @@
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>[2021-43]</t>
+          <t>20211027</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr">
@@ -26255,7 +26255,7 @@
       </c>
       <c r="AE192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gael</t>
+          <t>Gael</t>
         </is>
       </c>
       <c r="AF192" t="inlineStr">
@@ -26270,7 +26270,7 @@
       </c>
       <c r="AH192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alexander</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="AI192" t="inlineStr">
@@ -26349,7 +26349,7 @@
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>[2021-43]</t>
+          <t>20211027</t>
         </is>
       </c>
       <c r="Y193" t="inlineStr">
@@ -26384,7 +26384,7 @@
       </c>
       <c r="AE193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johannes Adrianus Maria</t>
+          <t>Johannes Adrianus Maria</t>
         </is>
       </c>
       <c r="AF193" t="inlineStr">
@@ -26467,7 +26467,7 @@
       </c>
       <c r="X194" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y194" t="inlineStr">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="AE194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sjors Bastiaan</t>
+          <t>Sjors Bastiaan</t>
         </is>
       </c>
       <c r="AF194" t="inlineStr">
@@ -26509,7 +26509,7 @@
       </c>
       <c r="AH194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dirk Maarten</t>
+          <t>Dirk Maarten</t>
         </is>
       </c>
       <c r="AI194" t="inlineStr">
@@ -26624,7 +26624,7 @@
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y195" t="inlineStr">
@@ -26651,7 +26651,7 @@
       </c>
       <c r="AE195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Volodymyr</t>
+          <t>Volodymyr</t>
         </is>
       </c>
       <c r="AF195" t="inlineStr">
@@ -26734,7 +26734,7 @@
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>[2021-44]</t>
+          <t>20211103</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr">
@@ -26769,7 +26769,7 @@
       </c>
       <c r="AE196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dan</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="AF196" t="inlineStr">
@@ -26784,7 +26784,7 @@
       </c>
       <c r="AH196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tauseef</t>
+          <t>Tauseef</t>
         </is>
       </c>
       <c r="AI196" t="inlineStr">
@@ -26799,7 +26799,7 @@
       </c>
       <c r="AK196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raymond Nicolaas Johan</t>
+          <t>Raymond Nicolaas Johan</t>
         </is>
       </c>
       <c r="AL196" t="inlineStr">
@@ -26814,7 +26814,7 @@
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Albert Rikus Johannes</t>
+          <t>Albert Rikus Johannes</t>
         </is>
       </c>
       <c r="AO196" t="inlineStr">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>[2021-46]</t>
+          <t>20211117</t>
         </is>
       </c>
       <c r="Y197" t="inlineStr">
@@ -26921,7 +26921,7 @@
       </c>
       <c r="AE197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marc Jean Baptist</t>
+          <t>Marc Jean Baptist</t>
         </is>
       </c>
       <c r="AF197" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="AH197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cornelis Gerardus Maria</t>
+          <t>Cornelis Gerardus Maria</t>
         </is>
       </c>
       <c r="AI197" t="inlineStr">
@@ -26951,7 +26951,7 @@
       </c>
       <c r="AK197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Henricus Meinardus Gerardus</t>
+          <t>Henricus Meinardus Gerardus</t>
         </is>
       </c>
       <c r="AL197" t="inlineStr">
@@ -27028,7 +27028,7 @@
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr">
@@ -27063,7 +27063,7 @@
       </c>
       <c r="AE198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roland  Willibrordus</t>
+          <t>Roland  Willibrordus</t>
         </is>
       </c>
       <c r="AF198" t="inlineStr">
@@ -27078,7 +27078,7 @@
       </c>
       <c r="AH198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Antonius  Maria</t>
+          <t>Antonius  Maria</t>
         </is>
       </c>
       <c r="AI198" t="inlineStr">
@@ -27161,7 +27161,7 @@
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y199" t="inlineStr">
@@ -27192,7 +27192,7 @@
       </c>
       <c r="AE199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johannes Jacobus</t>
+          <t>Johannes Jacobus</t>
         </is>
       </c>
       <c r="AF199" t="inlineStr">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y200" t="inlineStr">
@@ -27311,7 +27311,7 @@
       </c>
       <c r="AE200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christian</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="AF200" t="inlineStr">
@@ -27326,7 +27326,7 @@
       </c>
       <c r="AH200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Olaf</t>
+          <t>Olaf</t>
         </is>
       </c>
       <c r="AI200" t="inlineStr">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="AK200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Volker</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="AL200" t="inlineStr">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
@@ -27453,7 +27453,7 @@
       </c>
       <c r="AE201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Siamak</t>
+          <t>Siamak</t>
         </is>
       </c>
       <c r="AF201" t="inlineStr">
@@ -27468,7 +27468,7 @@
       </c>
       <c r="AH201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tong</t>
+          <t>Tong</t>
         </is>
       </c>
       <c r="AI201" t="inlineStr">
@@ -27483,7 +27483,7 @@
       </c>
       <c r="AK201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Samuel Michael</t>
+          <t>Samuel Michael</t>
         </is>
       </c>
       <c r="AL201" t="inlineStr">
@@ -27560,7 +27560,7 @@
       </c>
       <c r="X202" t="inlineStr">
         <is>
-          <t>[2021-47]</t>
+          <t>20211124</t>
         </is>
       </c>
       <c r="Y202" t="inlineStr">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="AE202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Siamak</t>
+          <t>Siamak</t>
         </is>
       </c>
       <c r="AF202" t="inlineStr">
@@ -27610,7 +27610,7 @@
       </c>
       <c r="AH202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xu</t>
+          <t>Xu</t>
         </is>
       </c>
       <c r="AI202" t="inlineStr">
@@ -27625,7 +27625,7 @@
       </c>
       <c r="AK202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tong</t>
+          <t>Tong</t>
         </is>
       </c>
       <c r="AL202" t="inlineStr">
@@ -27640,7 +27640,7 @@
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Samuel Michael</t>
+          <t>Samuel Michael</t>
         </is>
       </c>
       <c r="AO202" t="inlineStr">
@@ -27714,7 +27714,7 @@
       </c>
       <c r="X203" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y203" t="inlineStr">
@@ -27749,7 +27749,7 @@
       </c>
       <c r="AE203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arnau Castillo</t>
+          <t>Arnau Castillo</t>
         </is>
       </c>
       <c r="AF203" t="inlineStr">
@@ -27832,7 +27832,7 @@
       </c>
       <c r="X204" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y204" t="inlineStr">
@@ -27859,7 +27859,7 @@
       </c>
       <c r="AE204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dennis</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="AF204" t="inlineStr">
@@ -27942,7 +27942,7 @@
       </c>
       <c r="X205" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y205" t="inlineStr">
@@ -27977,7 +27977,7 @@
       </c>
       <c r="AE205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Navid</t>
+          <t>Navid</t>
         </is>
       </c>
       <c r="AF205" t="inlineStr">
@@ -27992,7 +27992,7 @@
       </c>
       <c r="AH205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alessio</t>
+          <t>Alessio</t>
         </is>
       </c>
       <c r="AI205" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="AK205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Feike Guus</t>
+          <t>Feike Guus</t>
         </is>
       </c>
       <c r="AL205" t="inlineStr">
@@ -28084,7 +28084,7 @@
       </c>
       <c r="X206" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y206" t="inlineStr">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="AE206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yanyu</t>
+          <t>Yanyu</t>
         </is>
       </c>
       <c r="AF206" t="inlineStr">
@@ -28134,7 +28134,7 @@
       </c>
       <c r="AH206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jos</t>
+          <t>Jos</t>
         </is>
       </c>
       <c r="AI206" t="inlineStr">
@@ -28149,7 +28149,7 @@
       </c>
       <c r="AK206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maoqiang</t>
+          <t>Maoqiang</t>
         </is>
       </c>
       <c r="AL206" t="inlineStr">
@@ -28226,7 +28226,7 @@
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
@@ -28261,7 +28261,7 @@
       </c>
       <c r="AE207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jaume</t>
+          <t>Jaume</t>
         </is>
       </c>
       <c r="AF207" t="inlineStr">
@@ -28344,7 +28344,7 @@
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y208" t="inlineStr">
@@ -28379,7 +28379,7 @@
       </c>
       <c r="AE208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Özgün</t>
+          <t>Özgün</t>
         </is>
       </c>
       <c r="AF208" t="inlineStr">
@@ -28394,7 +28394,7 @@
       </c>
       <c r="AH208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arie Geert Cornelis</t>
+          <t>Arie Geert Cornelis</t>
         </is>
       </c>
       <c r="AI208" t="inlineStr">
@@ -28474,7 +28474,7 @@
       </c>
       <c r="X209" t="inlineStr">
         <is>
-          <t>[2021-48]</t>
+          <t>20211201</t>
         </is>
       </c>
       <c r="Y209" t="inlineStr">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="AE209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Stefano</t>
+          <t>Stefano</t>
         </is>
       </c>
       <c r="AF209" t="inlineStr">
@@ -28524,7 +28524,7 @@
       </c>
       <c r="AH209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Aleksandra</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="AI209" t="inlineStr">
@@ -28539,7 +28539,7 @@
       </c>
       <c r="AK209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Kai</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="AL209" t="inlineStr">
@@ -28554,7 +28554,7 @@
       </c>
       <c r="AN209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Elena</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="AO209" t="inlineStr">
@@ -28569,7 +28569,7 @@
       </c>
       <c r="AQ209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Elena</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="AR209" t="inlineStr">
@@ -28640,7 +28640,7 @@
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y210" t="inlineStr">
@@ -28671,7 +28671,7 @@
       </c>
       <c r="AE210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim</t>
+          <t>Tim</t>
         </is>
       </c>
       <c r="AF210" t="inlineStr">
@@ -28754,7 +28754,7 @@
       </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y211" t="inlineStr">
@@ -28789,7 +28789,7 @@
       </c>
       <c r="AE211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hans</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="AF211" t="inlineStr">
@@ -28871,7 +28871,7 @@
       </c>
       <c r="X212" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y212" t="inlineStr">
@@ -28906,7 +28906,7 @@
       </c>
       <c r="AE212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gertrudis Maria Gerardus</t>
+          <t>Gertrudis Maria Gerardus</t>
         </is>
       </c>
       <c r="AF212" t="inlineStr">
@@ -28989,7 +28989,7 @@
       </c>
       <c r="X213" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y213" t="inlineStr">
@@ -29020,7 +29020,7 @@
       </c>
       <c r="AE213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Timothy</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="AF213" t="inlineStr">
@@ -29103,7 +29103,7 @@
       </c>
       <c r="X214" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y214" t="inlineStr">
@@ -29138,7 +29138,7 @@
       </c>
       <c r="AE214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raul</t>
+          <t>Raul</t>
         </is>
       </c>
       <c r="AF214" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="AH214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daniel</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="AI214" t="inlineStr">
@@ -29168,7 +29168,7 @@
       </c>
       <c r="AK214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> David</t>
+          <t>David</t>
         </is>
       </c>
       <c r="AL214" t="inlineStr">
@@ -29245,7 +29245,7 @@
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>[2021-49]</t>
+          <t>20211208</t>
         </is>
       </c>
       <c r="Y215" t="inlineStr">
@@ -29276,7 +29276,7 @@
       </c>
       <c r="AE215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Timothy</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="AF215" t="inlineStr">
@@ -29359,7 +29359,7 @@
       </c>
       <c r="X216" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y216" t="inlineStr">
@@ -29390,7 +29390,7 @@
       </c>
       <c r="AE216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="AF216" t="inlineStr">
@@ -29405,7 +29405,7 @@
       </c>
       <c r="AH216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Franciscus Theodorus Henricus
+          <t>Franciscus Theodorus Henricus
 Johannes</t>
         </is>
       </c>
@@ -29421,7 +29421,7 @@
       </c>
       <c r="AK216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cornelis Joannes</t>
+          <t>Cornelis Joannes</t>
         </is>
       </c>
       <c r="AL216" t="inlineStr">
@@ -29436,7 +29436,7 @@
       </c>
       <c r="AN216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bastiaan Martinus Cornelis</t>
+          <t>Bastiaan Martinus Cornelis</t>
         </is>
       </c>
       <c r="AO216" t="inlineStr">
@@ -29451,7 +29451,7 @@
       </c>
       <c r="AQ216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Heinz</t>
+          <t>Heinz</t>
         </is>
       </c>
       <c r="AR216" t="inlineStr">
@@ -29466,7 +29466,7 @@
       </c>
       <c r="AT216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Leonardus Jozephus Antonius</t>
+          <t>Leonardus Jozephus Antonius</t>
         </is>
       </c>
       <c r="AU216" t="inlineStr">
@@ -29481,7 +29481,7 @@
       </c>
       <c r="AW216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Niels Antonio William</t>
+          <t>Niels Antonio William</t>
         </is>
       </c>
       <c r="AX216" t="inlineStr">
@@ -29546,7 +29546,7 @@
       </c>
       <c r="X217" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y217" t="inlineStr">
@@ -29573,7 +29573,7 @@
       </c>
       <c r="AE217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johannes Adrianus Henricus Maria</t>
+          <t>Johannes Adrianus Henricus Maria</t>
         </is>
       </c>
       <c r="AF217" t="inlineStr">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="X218" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y218" t="inlineStr">
@@ -29691,7 +29691,7 @@
       </c>
       <c r="AE218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paul Roeland</t>
+          <t>Paul Roeland</t>
         </is>
       </c>
       <c r="AF218" t="inlineStr">
@@ -29706,7 +29706,7 @@
       </c>
       <c r="AH218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christian</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="AI218" t="inlineStr">
@@ -29721,7 +29721,7 @@
       </c>
       <c r="AK218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martin</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="AL218" t="inlineStr">
@@ -29736,7 +29736,7 @@
       </c>
       <c r="AN218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lydia</t>
+          <t>Lydia</t>
         </is>
       </c>
       <c r="AO218" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="AQ218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lily-Belle</t>
+          <t>Lily-Belle</t>
         </is>
       </c>
       <c r="AR218" t="inlineStr">
@@ -29822,7 +29822,7 @@
       </c>
       <c r="X219" t="inlineStr">
         <is>
-          <t>[2021-50]</t>
+          <t>20211215</t>
         </is>
       </c>
       <c r="Y219" t="inlineStr">
@@ -29857,7 +29857,7 @@
       </c>
       <c r="AE219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aleksandar</t>
+          <t>Aleksandar</t>
         </is>
       </c>
       <c r="AF219" t="inlineStr">
@@ -29872,7 +29872,7 @@
       </c>
       <c r="AH219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johan  Paul  Marie  Gerard</t>
+          <t>Johan  Paul  Marie  Gerard</t>
         </is>
       </c>
       <c r="AI219" t="inlineStr">
@@ -29952,7 +29952,7 @@
       </c>
       <c r="X220" t="inlineStr">
         <is>
-          <t>[2021-51]</t>
+          <t>20211222</t>
         </is>
       </c>
       <c r="Y220" t="inlineStr">
@@ -29987,7 +29987,7 @@
       </c>
       <c r="AE220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marco Jan Gerrit</t>
+          <t>Marco Jan Gerrit</t>
         </is>
       </c>
       <c r="AF220" t="inlineStr">
@@ -30002,7 +30002,7 @@
       </c>
       <c r="AH220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Feike Guus</t>
+          <t>Feike Guus</t>
         </is>
       </c>
       <c r="AI220" t="inlineStr">
@@ -30090,7 +30090,7 @@
       </c>
       <c r="X221" t="inlineStr">
         <is>
-          <t>[2021-51]</t>
+          <t>20211222</t>
         </is>
       </c>
       <c r="Y221" t="inlineStr">
@@ -30125,7 +30125,7 @@
       </c>
       <c r="AE221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clifford</t>
+          <t>Clifford</t>
         </is>
       </c>
       <c r="AF221" t="inlineStr">
@@ -30140,7 +30140,7 @@
       </c>
       <c r="AH221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martin</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="AI221" t="inlineStr">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="AK221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daniel</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="AL221" t="inlineStr">
@@ -30170,7 +30170,7 @@
       </c>
       <c r="AN221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fernando Berra</t>
+          <t>Fernando Berra</t>
         </is>
       </c>
       <c r="AO221" t="inlineStr">
@@ -30244,7 +30244,7 @@
       </c>
       <c r="X222" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y222" t="inlineStr">
@@ -30279,7 +30279,7 @@
       </c>
       <c r="AE222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roland Manfred</t>
+          <t>Roland Manfred</t>
         </is>
       </c>
       <c r="AF222" t="inlineStr">
@@ -30294,7 +30294,7 @@
       </c>
       <c r="AH222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Willem Johan</t>
+          <t>Willem Johan</t>
         </is>
       </c>
       <c r="AI222" t="inlineStr">
@@ -30374,7 +30374,7 @@
       </c>
       <c r="X223" t="inlineStr">
         <is>
-          <t>[2021-52]</t>
+          <t>20211229</t>
         </is>
       </c>
       <c r="Y223" t="inlineStr">
@@ -30405,7 +30405,7 @@
       </c>
       <c r="AE223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pavel</t>
+          <t>Pavel</t>
         </is>
       </c>
       <c r="AF223" t="inlineStr">
@@ -30420,7 +30420,7 @@
       </c>
       <c r="AH223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Henri Jaakko Julius</t>
+          <t>Henri Jaakko Julius</t>
         </is>
       </c>
       <c r="AI223" t="inlineStr">
@@ -30435,7 +30435,7 @@
       </c>
       <c r="AK223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lauri Aarne Johannes</t>
+          <t>Lauri Aarne Johannes</t>
         </is>
       </c>
       <c r="AL223" t="inlineStr">
@@ -30512,7 +30512,7 @@
       </c>
       <c r="X224" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y224" t="inlineStr">
@@ -30543,7 +30543,7 @@
       </c>
       <c r="AE224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arie</t>
+          <t>Arie</t>
         </is>
       </c>
       <c r="AF224" t="inlineStr">
@@ -30558,7 +30558,7 @@
       </c>
       <c r="AH224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Korstiaan Cornelis</t>
+          <t>Korstiaan Cornelis</t>
         </is>
       </c>
       <c r="AI224" t="inlineStr">
@@ -30573,7 +30573,7 @@
       </c>
       <c r="AK224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Karel</t>
+          <t>Karel</t>
         </is>
       </c>
       <c r="AL224" t="inlineStr">
@@ -30659,7 +30659,7 @@
       </c>
       <c r="X225" t="inlineStr">
         <is>
-          <t>[2022-01]</t>
+          <t>20220105</t>
         </is>
       </c>
       <c r="Y225" t="inlineStr">
@@ -30690,7 +30690,7 @@
       </c>
       <c r="AE225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mr. Niels Theodoor</t>
+          <t>Mr. Niels Theodoor</t>
         </is>
       </c>
       <c r="AF225" t="inlineStr">
